--- a/stroopdata.xlsx
+++ b/stroopdata.xlsx
@@ -19,18 +19,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>Congruent</t>
   </si>
   <si>
     <t>Incongruent</t>
   </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Desvio padrão (Amostra)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -348,7 +357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -463,6 +472,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -508,8 +532,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -865,15 +891,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection sqref="A1:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -881,31 +914,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>12.079000000000001</v>
       </c>
       <c r="B2">
         <v>19.277999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>16.791</v>
       </c>
       <c r="B3">
         <v>18.741</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <f>AVERAGE(A2:A25)</f>
+        <v>14.051125000000001</v>
+      </c>
+      <c r="F3" s="2">
+        <f>AVERAGE(B2:B25)</f>
+        <v>22.015916666666669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>9.5640000000000001</v>
       </c>
       <c r="B4">
         <v>21.213999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <f>_xlfn.STDEV.S(A2:A25)</f>
+        <v>3.559357957645187</v>
+      </c>
+      <c r="F4" s="2">
+        <f>_xlfn.STDEV.S(B2:B25)</f>
+        <v>4.7970571224691367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8.6300000000000008</v>
       </c>
@@ -913,7 +975,7 @@
         <v>15.686999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>14.669</v>
       </c>
@@ -921,7 +983,7 @@
         <v>22.803000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>12.238</v>
       </c>
@@ -929,7 +991,7 @@
         <v>20.878</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>14.692</v>
       </c>
@@ -937,7 +999,7 @@
         <v>24.571999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8.9870000000000001</v>
       </c>
@@ -945,7 +1007,7 @@
         <v>17.393999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9.4009999999999998</v>
       </c>
@@ -953,7 +1015,7 @@
         <v>20.762</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14.48</v>
       </c>
@@ -961,7 +1023,7 @@
         <v>26.282</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22.327999999999999</v>
       </c>
@@ -969,7 +1031,7 @@
         <v>24.524000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>15.298</v>
       </c>
@@ -977,7 +1039,7 @@
         <v>18.643999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>15.073</v>
       </c>
@@ -985,7 +1047,7 @@
         <v>17.510000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>16.928999999999998</v>
       </c>
@@ -993,7 +1055,7 @@
         <v>20.329999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>18.2</v>
       </c>

--- a/stroopdata.xlsx
+++ b/stroopdata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>Congruent</t>
   </si>
@@ -32,6 +32,45 @@
   <si>
     <t>Desvio padrão (Amostra)</t>
   </si>
+  <si>
+    <t>Mínimo</t>
+  </si>
+  <si>
+    <t>Máximo</t>
+  </si>
+  <si>
+    <t>Intervalos histograma</t>
+  </si>
+  <si>
+    <t>Mais</t>
+  </si>
+  <si>
+    <t>Freqüência</t>
+  </si>
+  <si>
+    <t>0-5</t>
+  </si>
+  <si>
+    <t>5-10</t>
+  </si>
+  <si>
+    <t>10-15</t>
+  </si>
+  <si>
+    <t>15-20</t>
+  </si>
+  <si>
+    <t>20-25</t>
+  </si>
+  <si>
+    <t>25-30</t>
+  </si>
+  <si>
+    <t>30-35</t>
+  </si>
+  <si>
+    <t>35-40</t>
+  </si>
 </sst>
 </file>
 
@@ -40,7 +79,7 @@
   <numFmts count="1">
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +214,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -357,7 +404,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -487,6 +534,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -532,10 +599,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -592,6 +667,525 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Histograma Congruent</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Freqüência</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>stroopdata!$H$3:$H$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10-15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20-25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25-30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30-35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35-40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mais</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>stroopdata!$I$3:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7191-439C-A7E5-8CF9320D99C7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="328945056"/>
+        <c:axId val="328943744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="328945056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Intervalos histograma</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="328943744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="328943744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Freqüência</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="328945056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Histograma Incongruent</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Freqüência</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>stroopdata!$H$16:$H$24</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10-15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20-25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25-30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30-35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35-40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mais</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>stroopdata!$I$16:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0C79-4CB0-8595-58FB3D5C39C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="532143920"/>
+        <c:axId val="532144248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="532143920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Intervalos histograma</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="532144248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="532144248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Freqüência</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="532143920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644938B3-AE1E-4B79-8E76-8204CC401C52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22A8CD20-1280-4BAE-9428-16AF57937CAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -891,10 +1485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A25"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -902,11 +1496,11 @@
     <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -914,7 +1508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>12.079000000000001</v>
       </c>
@@ -928,8 +1522,14 @@
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>16.791</v>
       </c>
@@ -947,8 +1547,14 @@
         <f>AVERAGE(B2:B25)</f>
         <v>22.015916666666669</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>9.5640000000000001</v>
       </c>
@@ -966,168 +1572,324 @@
         <f>_xlfn.STDEV.S(B2:B25)</f>
         <v>4.7970571224691367</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8.6300000000000008</v>
       </c>
       <c r="B5">
         <v>15.686999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>14.669</v>
       </c>
       <c r="B6">
         <v>22.803000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>12.238</v>
       </c>
       <c r="B7">
         <v>20.878</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>14.692</v>
       </c>
       <c r="B8">
         <v>24.571999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <f>MIN(A2:B25)</f>
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8.9870000000000001</v>
       </c>
       <c r="B9">
         <v>17.393999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <f>MAX(A2:B25)</f>
+        <v>35.255000000000003</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9.4009999999999998</v>
       </c>
       <c r="B10">
         <v>20.762</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>14.48</v>
       </c>
       <c r="B11">
         <v>26.282</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22.327999999999999</v>
       </c>
       <c r="B12">
         <v>24.524000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>15.298</v>
       </c>
       <c r="B13">
         <v>18.643999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <f>E12+5</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>15.073</v>
       </c>
       <c r="B14">
         <v>17.510000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <f t="shared" ref="E14:E24" si="0">E13+5</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>16.928999999999998</v>
       </c>
       <c r="B15">
         <v>20.329999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>18.2</v>
       </c>
       <c r="B16">
         <v>35.255000000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12.13</v>
       </c>
       <c r="B17">
         <v>22.158000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18.495000000000001</v>
       </c>
       <c r="B18">
         <v>25.138999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10.638999999999999</v>
       </c>
       <c r="B19">
         <v>20.428999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>11.343999999999999</v>
       </c>
       <c r="B20">
         <v>17.425000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12.369</v>
       </c>
       <c r="B21">
         <v>34.287999999999997</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>12.944000000000001</v>
       </c>
       <c r="B22">
         <v>23.893999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>14.233000000000001</v>
       </c>
       <c r="B23">
         <v>17.96</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>19.71</v>
       </c>
       <c r="B24">
         <v>22.058</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="H24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>16.004000000000001</v>
       </c>
@@ -1136,6 +1898,11 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="H16:H23">
+    <sortCondition ref="H16"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/stroopdata.xlsx
+++ b/stroopdata.xlsx
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="stroopdata" sheetId="1" r:id="rId1"/>
+    <sheet name="Histograma" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Congruent</t>
   </si>
@@ -70,6 +71,27 @@
   </si>
   <si>
     <t>35-40</t>
+  </si>
+  <si>
+    <t>Diference</t>
+  </si>
+  <si>
+    <t>t-statistic</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>t-critical (alfa = 0.05)</t>
+  </si>
+  <si>
+    <t>+/- 2.069</t>
+  </si>
+  <si>
+    <t>r^2</t>
   </si>
 </sst>
 </file>
@@ -77,7 +99,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -599,10 +621,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -611,6 +633,9 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -717,7 +742,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>stroopdata!$H$3:$H$11</c:f>
+              <c:f>Histograma!$D$3:$D$11</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -752,7 +777,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>stroopdata!$I$3:$I$11</c:f>
+              <c:f>Histograma!$E$3:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -788,7 +813,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7191-439C-A7E5-8CF9320D99C7}"/>
+              <c16:uniqueId val="{00000000-C5C9-4A20-A39C-29A94D912CC5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -938,7 +963,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>stroopdata!$H$16:$H$24</c:f>
+              <c:f>Histograma!$D$16:$D$24</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -973,7 +998,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>stroopdata!$I$16:$I$24</c:f>
+              <c:f>Histograma!$E$16:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1009,7 +1034,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0C79-4CB0-8595-58FB3D5C39C9}"/>
+              <c16:uniqueId val="{00000000-232E-4C59-A891-928DB6535FE3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1115,27 +1140,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>281940</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>480060</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644938B3-AE1E-4B79-8E76-8204CC401C52}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{734E086C-FF10-4334-BE4D-D87EE1BCF628}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1151,27 +1178,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>289560</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22A8CD20-1280-4BAE-9428-16AF57937CAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0DDE9A2-A36E-4A43-B3E4-0FD3E2478A42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1485,424 +1514,634 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="G11" sqref="G11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>12.079000000000001</v>
       </c>
       <c r="B2">
         <v>19.277999999999999</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <f>B2-A2</f>
+        <v>7.1989999999999981</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="str">
+        <f>A1</f>
+        <v>Congruent</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f t="shared" ref="G2:H2" si="0">B1</f>
+        <v>Incongruent</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Diference</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>16.791</v>
       </c>
       <c r="B3">
         <v>18.741</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3">
+        <f t="shared" ref="C3:C25" si="1">B3-A3</f>
+        <v>1.9499999999999993</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <f>AVERAGE(A2:A25)</f>
         <v>14.051125000000001</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <f>AVERAGE(B2:B25)</f>
         <v>22.015916666666669</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H3" s="2">
+        <f>AVERAGE(C2:C25)</f>
+        <v>7.964791666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>9.5640000000000001</v>
       </c>
       <c r="B4">
         <v>21.213999999999999</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>11.649999999999999</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <f>_xlfn.STDEV.S(A2:A25)</f>
         <v>3.559357957645187</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <f>_xlfn.STDEV.S(B2:B25)</f>
         <v>4.7970571224691367</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H4" s="2">
+        <f>_xlfn.STDEV.S(C2:C25)</f>
+        <v>4.8648269103590565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8.6300000000000008</v>
       </c>
       <c r="B5">
         <v>15.686999999999999</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>7.0569999999999986</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="1">
+        <f>COUNT(C2:C25)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>14.669</v>
       </c>
       <c r="B6">
         <v>22.803000000000001</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>8.1340000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>12.238</v>
       </c>
       <c r="B7">
         <v>20.878</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>8.64</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="2">
+        <f>H3/(H4/H5^0.5)</f>
+        <v>8.0207069441099534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>14.692</v>
       </c>
       <c r="B8">
         <v>24.571999999999999</v>
       </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <f>MIN(A2:B25)</f>
-        <v>8.6300000000000008</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>9.879999999999999</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="1">
+        <f>H5-1</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8.9870000000000001</v>
       </c>
       <c r="B9">
         <v>17.393999999999998</v>
       </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <f>MAX(A2:B25)</f>
-        <v>35.255000000000003</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>8.4069999999999983</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9.4009999999999998</v>
       </c>
       <c r="B10">
         <v>20.762</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>11.361000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14.48</v>
       </c>
       <c r="B11">
         <v>26.282</v>
       </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>11.802</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="2">
+        <f>H7^2/(H7^2+H8)</f>
+        <v>0.73663641614450592</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22.327999999999999</v>
       </c>
       <c r="B12">
         <v>24.524000000000001</v>
       </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>2.1960000000000015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>15.298</v>
       </c>
       <c r="B13">
         <v>18.643999999999998</v>
       </c>
-      <c r="E13">
-        <f>E12+5</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>3.3459999999999983</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>15.073</v>
       </c>
       <c r="B14">
         <v>17.510000000000002</v>
       </c>
-      <c r="E14">
-        <f t="shared" ref="E14:E24" si="0">E13+5</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>2.4370000000000012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>16.928999999999998</v>
       </c>
       <c r="B15">
         <v>20.329999999999998</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>3.4009999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>18.2</v>
       </c>
       <c r="B16">
         <v>35.255000000000003</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>17.055000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12.13</v>
       </c>
       <c r="B17">
         <v>22.158000000000001</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>10.028</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18.495000000000001</v>
       </c>
       <c r="B18">
         <v>25.138999999999999</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>6.6439999999999984</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10.638999999999999</v>
       </c>
       <c r="B19">
         <v>20.428999999999998</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>9.7899999999999991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>11.343999999999999</v>
       </c>
       <c r="B20">
         <v>17.425000000000001</v>
       </c>
-      <c r="H20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>6.0810000000000013</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12.369</v>
       </c>
       <c r="B21">
         <v>34.287999999999997</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>21.918999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>12.944000000000001</v>
       </c>
       <c r="B22">
         <v>23.893999999999998</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>10.949999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>14.233000000000001</v>
       </c>
       <c r="B23">
         <v>17.96</v>
       </c>
-      <c r="H23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>3.7270000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>19.71</v>
       </c>
       <c r="B24">
         <v>22.058</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>2.347999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>16.004000000000001</v>
       </c>
       <c r="B25">
         <v>21.157</v>
       </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>5.1529999999999987</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="H16:H23">
-    <sortCondition ref="H16"/>
+  <sortState ref="I16:I23">
+    <sortCondition ref="I16"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <f>MIN(stroopdata!A2:B25)</f>
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <f>MAX(stroopdata!A2:B25)</f>
+        <v>35.255000000000003</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <f t="shared" ref="B8:B14" si="0">B7+5</f>
+        <v>10</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>